--- a/tools/intuitem/doc-pol.xlsx
+++ b/tools/intuitem/doc-pol.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericlaubacher/Documents/GitHub/ciso-assistant/tools/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericlaubacher/Documents/GitHub/ciso-assistant-community/tools/intuitem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91627EA2-FECE-244B-B6F9-2D5C4F999B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C5FF93-2CE5-3544-8F6E-C54B15373DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35120" windowHeight="20200" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="library_content" sheetId="3" r:id="rId1"/>
     <sheet name="Documents" sheetId="4" r:id="rId2"/>
-    <sheet name="Policies" sheetId="5" r:id="rId3"/>
+    <sheet name="Procedures" sheetId="7" r:id="rId3"/>
+    <sheet name="Policies" sheetId="5" r:id="rId4"/>
+    <sheet name="Others" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="536">
   <si>
     <t>library_urn</t>
   </si>
@@ -295,9 +297,6 @@
     <t>Risk management</t>
   </si>
   <si>
-    <t>A.5.24, A.5.25, A.5.26, A.5.27</t>
-  </si>
-  <si>
     <t>A.5.19, A.5.20, A.5.21, A.5.22, A.5.23</t>
   </si>
   <si>
@@ -310,9 +309,6 @@
     <t>POL.MAINTENANCE</t>
   </si>
   <si>
-    <t>A.7.13</t>
-  </si>
-  <si>
     <t>Protection of audit information</t>
   </si>
   <si>
@@ -322,15 +318,9 @@
     <t>Documents</t>
   </si>
   <si>
-    <t>security_functions</t>
-  </si>
-  <si>
     <t>Policies</t>
   </si>
   <si>
-    <t>security_function_base_urn</t>
-  </si>
-  <si>
     <t>intuitem</t>
   </si>
   <si>
@@ -358,12 +348,6 @@
     <t>library_copyright</t>
   </si>
   <si>
-    <t>Typical documents and policies recommended by intuitem</t>
-  </si>
-  <si>
-    <t>Documents and policies</t>
-  </si>
-  <si>
     <t>library_provider</t>
   </si>
   <si>
@@ -395,9 +379,6 @@
   </si>
   <si>
     <t>library_ref_id</t>
-  </si>
-  <si>
-    <t>doc-pol</t>
   </si>
   <si>
     <t>information security objectives
@@ -522,10 +503,6 @@
 Continual improvement</t>
   </si>
   <si>
-    <t>Security incident management
-Vulnerability management</t>
-  </si>
-  <si>
     <t>Obsolescence management
 Maintenance contracts
 Change management</t>
@@ -632,25 +609,6 @@
 Continual improvement</t>
   </si>
   <si>
-    <t>Risk management procdure
-Incident management procedure
-Problem management procedure
-Vulnerability management procedure
-HR procedures
-Change management procedure
-Procedure for externalization
-Physical security procedures
-Privileged access procedure</t>
-  </si>
-  <si>
-    <t>8.1
-A.6.1
-8.1
-8.1.
-A.7.1
-A.8.2</t>
-  </si>
-  <si>
     <t>List of non-conformities (incident, problems, …)
 Corrective action taken</t>
   </si>
@@ -722,13 +680,1449 @@
   </si>
   <si>
     <t>urn:intuitem:risk:library:doc-pol</t>
+  </si>
+  <si>
+    <t>reference_controls</t>
+  </si>
+  <si>
+    <t>Présentation de l’organisation</t>
+  </si>
+  <si>
+    <t>Contexte de l'organisation</t>
+  </si>
+  <si>
+    <t>Périmètre du SMSI</t>
+  </si>
+  <si>
+    <t>Registre légal</t>
+  </si>
+  <si>
+    <t>Déclaration d'applicabilité</t>
+  </si>
+  <si>
+    <t>Matrice de responsabilité des mesures</t>
+  </si>
+  <si>
+    <t>Plan d'audit</t>
+  </si>
+  <si>
+    <t>Matrice de compétence</t>
+  </si>
+  <si>
+    <t>Matrice de responsabilité</t>
+  </si>
+  <si>
+    <t>Plan de communication</t>
+  </si>
+  <si>
+    <t>Registre des risques</t>
+  </si>
+  <si>
+    <t>registre des objectifs de sécurité</t>
+  </si>
+  <si>
+    <t>Plan de la revue de management</t>
+  </si>
+  <si>
+    <t>Registre de formation et sensibilisation</t>
+  </si>
+  <si>
+    <t>Registre des documents</t>
+  </si>
+  <si>
+    <t>Registre des procédures opérationnelles</t>
+  </si>
+  <si>
+    <t>Registre des non-conformités</t>
+  </si>
+  <si>
+    <t>Règlement intérieur</t>
+  </si>
+  <si>
+    <t>Registre des biens</t>
+  </si>
+  <si>
+    <t>Registre des fournisseurs</t>
+  </si>
+  <si>
+    <t>Gestion des risques</t>
+  </si>
+  <si>
+    <t>Objectifs organisationnels
+Organigramme
+Objectifs de l’ISMS
+Responsabilités du RSSI
+Examen de la direction du SMSI</t>
+  </si>
+  <si>
+    <t>Parties prenantes
+Autorités
+Groupes d’intérêts</t>
+  </si>
+  <si>
+    <t>Produits et services
+Produits et services nécessitant une certification
+Locaux
+Vue de l’organisation
+Vue de l’architecture d’entreprise
+Vue de l’architecture des données
+Vue de l’architecture d’application
+Vue de l’architecture technologique
+Vue réseau
+Énoncé du champ d’application</t>
+  </si>
+  <si>
+    <t>Exigences légales 
+Exigences légales 
+Exigences réglementaires 
+Exigences contractuelles 
+Droits de propriété intellectuelle
+Contrats de travail
+NDA</t>
+  </si>
+  <si>
+    <t>Contexte de l’organisation
+Leadership
+Planification
+Soutien
+Opération
+Évaluation des performances
+Amélioration
+Contrôles organisationnels
+Contrôles du personnel
+Contrôles physiques
+Contrôles technologiques</t>
+  </si>
+  <si>
+    <t>RACI du SMSI</t>
+  </si>
+  <si>
+    <t>Propriétaire du risque
+Impact
+Vraisemblance
+Niveau de risque
+Évaluation
+Priorité
+Option de traitement
+Mesures d’atténuation - mesures de sécurité recommandées</t>
+  </si>
+  <si>
+    <t>Examen des risques
+Examen des objectifs de sécurité
+Examen des incidents de sécurité
+Examen de la gestion des vulnérabilités
+Examen des non-conformités</t>
+  </si>
+  <si>
+    <t>Règles d’édition et de maintenance
+Contrôle de version
+Registre
+Amélioration continue</t>
+  </si>
+  <si>
+    <t>Liste des non-conformités (incident, problèmes, ...)
+Mesures correctives prises</t>
+  </si>
+  <si>
+    <t>description[fr]</t>
+  </si>
+  <si>
+    <t>name[fr]</t>
+  </si>
+  <si>
+    <t>Politique principale</t>
+  </si>
+  <si>
+    <t>Politique de sensibilisation et de formation à la sécurité de l’information</t>
+  </si>
+  <si>
+    <t>Politique des postes de travail et de télétravail</t>
+  </si>
+  <si>
+    <t>Politique cryptographique</t>
+  </si>
+  <si>
+    <t>Politique de classification et de traitement de l’information</t>
+  </si>
+  <si>
+    <t>Politique d’audit interne et externe</t>
+  </si>
+  <si>
+    <t>Politique de continuité d’activité</t>
+  </si>
+  <si>
+    <t>Politique sur la séparation des tâches</t>
+  </si>
+  <si>
+    <t>Politique de contrôle d’accès</t>
+  </si>
+  <si>
+    <t>Politique de protection contre les logiciels malveillants</t>
+  </si>
+  <si>
+    <t>Politique de gestion des risques</t>
+  </si>
+  <si>
+    <t>Politique de gestion d’actifs</t>
+  </si>
+  <si>
+    <t>Politique de sauvegarde et de restauration</t>
+  </si>
+  <si>
+    <t>Politique de sécurité des fournisseurs tiers</t>
+  </si>
+  <si>
+    <t>Politique de journalisation et de surveillance</t>
+  </si>
+  <si>
+    <t>Politique de transfert d’informations</t>
+  </si>
+  <si>
+    <t>Politique de développement sécurisé</t>
+  </si>
+  <si>
+    <t>Politique de sécurité physique</t>
+  </si>
+  <si>
+    <t>Politique de gestion de la sécurité du réseau</t>
+  </si>
+  <si>
+    <t>Politique d’utilisation acceptable</t>
+  </si>
+  <si>
+    <t>Politique d’intégration de projets SI</t>
+  </si>
+  <si>
+    <t>Politique de renseignement sur les menaces</t>
+  </si>
+  <si>
+    <t>Politique de gestion des incidents du SI</t>
+  </si>
+  <si>
+    <t>Politique de maintenance</t>
+  </si>
+  <si>
+    <t>Gestion de l’obsolescence
+Contrats de maintenance
+Gestion du changement</t>
+  </si>
+  <si>
+    <t>Vulnérabilités exploitées connues
+Activité des acteurs de la menace
+Amélioration continue</t>
+  </si>
+  <si>
+    <t>Périmètre de sécurité physique
+Zones sécurisées
+Contrôle d’accès des employés
+Contrôle d’accès des visiteurs
+Gestion des livraisons
+Sécurité du câblage
+Amélioration continue</t>
+  </si>
+  <si>
+    <t>Journalisation</t>
+  </si>
+  <si>
+    <t>Définition de la gestion des risques
+Appétit pour le risque
+Critères d’acceptation des risques
+Critères d’évaluation des risques
+Identification des risques
+Évaluation du risque
+Approche CIAP
+Rapports sur les risques
+Examen des risques
+Traitement des risques (atténuation, acceptation, transfert)
+Évaluation des risques
+Utilisation des commandes ISO27002
+Gestion des droits d’accès
+Amélioration continue</t>
+  </si>
+  <si>
+    <t>Identification
+authentification
+Gestion des mots de passe
+RBAC
+Révision des droits d’accès
+Fourniture
+Sortants
+Accès à distance
+Gestion des accès à privilèges
+Accès par des tiers
+Surveillance et rapports
+Amélioration continue</t>
+  </si>
+  <si>
+    <t>Protection des informations d’audit</t>
+  </si>
+  <si>
+    <t>classification
+Protection et traitement des informations
+Conservation et traitement des PII
+bureau dégagé
+écran clair
+Protection des registres
+Règles de conservation
+Utilisation des informations de test
+Amélioration continue</t>
+  </si>
+  <si>
+    <t>Gestion des clés
+Chiffrement
+Amélioration continue</t>
+  </si>
+  <si>
+    <t>Postes
+Appareils mobiles
+Télétravail
+Gestion des mots de passe
+Restitution des avoirs
+Amélioration continue</t>
+  </si>
+  <si>
+    <t>conséquences du non-respect
+Rapports sur les événements de sécurité
+Amélioration continue</t>
+  </si>
+  <si>
+    <t>Objectifs de sécurité de l’information
+engagement
+Revue de direction
+Politiques applicables
+Gestion des non-conformités
+Amélioration continue</t>
+  </si>
+  <si>
+    <t>reference_control_base_urn</t>
+  </si>
+  <si>
+    <t>library_name[fr]</t>
+  </si>
+  <si>
+    <t>library_description[fr]</t>
+  </si>
+  <si>
+    <t>DOC.EDUC_PLAN</t>
+  </si>
+  <si>
+    <t>Information security awareness and traning plan</t>
+  </si>
+  <si>
+    <t>csf_function</t>
+  </si>
+  <si>
+    <t>govern</t>
+  </si>
+  <si>
+    <t>identify</t>
+  </si>
+  <si>
+    <t>Plan de sensibilisation et de formation</t>
+  </si>
+  <si>
+    <t>Formation conformité légal et réglementaire</t>
+  </si>
+  <si>
+    <t>7.2
+7.3</t>
+  </si>
+  <si>
+    <t>Legal and regulatory training</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>TRAIN.LEGAL</t>
+  </si>
+  <si>
+    <t>Objective: Ensure awareness of legal and regulatory compliance.
+Audience: All employees; tailored for specific roles.
+Topics: Key laws (e.g., GDPR), data handling, non-compliance risks.
+Methods: E-learning, workshops, case studies.
+Assessment: Quizzes and scenario-based tests.</t>
+  </si>
+  <si>
+    <t>Objectif : Assurer une sensibilisation aux obligations légales et réglementaires.
+Public : Tous les employés, avec des contenus adaptés aux rôles spécifiques.
+Sujets : Lois clés (ex. : RGPD), gestion des données, risques de non-conformité.
+Méthodes : E-learning, ateliers, études de cas.
+Évaluation : Quiz et tests basés sur des scénarios.</t>
+  </si>
+  <si>
+    <t>Formation sur l'état de la menace</t>
+  </si>
+  <si>
+    <t>TRAIN.THREAT</t>
+  </si>
+  <si>
+    <t>Threat landscape training</t>
+  </si>
+  <si>
+    <t>Objective: Understand current cyber threats and mitigation strategies.
+Audience: IT staff, security teams, and decision-makers.
+Topics: Emerging threats, attack techniques, defense mechanisms.
+Methods: Presentations, case studies, scenario-based discussions.
+Outcome: Improved awareness and readiness to address evolving threats.</t>
+  </si>
+  <si>
+    <t>Objectif : Comprendre les menaces cyber actuelles et les stratégies d’atténuation.
+Public : Équipes IT, équipes de sécurité, et décideurs.
+Sujets : Menaces émergentes, techniques d'attaque, mécanismes de défense.
+Méthodes : Présentations, études de cas, discussions basées sur des scénarios.
+Résultat : Sensibilisation accrue et meilleure préparation face aux menaces évolutives.</t>
+  </si>
+  <si>
+    <t>TRAIN.IAM</t>
+  </si>
+  <si>
+    <t>Objectif : Comprendre et maîtriser la gestion des identités et des accès.
+Public : Administrateurs IT, équipes de sécurité, responsables d’accès.
+Sujets :
+Concepts clés (identité, authentification, autorisation, modèles RBAC/ABAC).
+Bonnes pratiques IAM (gestion des droits, provisionnement, audits).
+Normes et outils (SAML, OAuth, Active Directory, etc.).
+Méthodes : Ateliers pratiques, cas d’usage, démonstrations.
+Résultat : Capacités renforcées pour sécuriser et gérer les accès efficacement.</t>
+  </si>
+  <si>
+    <t>Formation IAM (Gestion des Identités et des Accès)</t>
+  </si>
+  <si>
+    <t>Objective: Understand and master identity and access management.
+Audience: IT administrators, security teams, access managers.
+Topics:
+- Key concepts (identity, authentication, authorization, RBAC/ABAC models).
+- IAM best practices (rights management, provisioning, audits).
+- Standards and tools (SAML, OAuth, Active Directory, etc.).
+Methods: Practical workshops, use cases, demonstrations.
+Outcome: Enhanced skills to secure and efficiently manage access.</t>
+  </si>
+  <si>
+    <t>IAM (Identity and Access Management) training</t>
+  </si>
+  <si>
+    <t>TRAIN.NETWORK_SECURITY</t>
+  </si>
+  <si>
+    <t>Network security training</t>
+  </si>
+  <si>
+    <t>Formation sécurité réseau</t>
+  </si>
+  <si>
+    <t>Objective: Teach best practices for securing network infrastructures and preventing cyber threats.
+Audience: IT administrators, network engineers, security professionals.
+Topics:
+- Network segregation principles.
+- Firewall configuration and monitoring.
+- Intrusion detection/prevention systems (IDS/IPS/NDR).
+- Network segmentation and access control.
+- Secure protocols (e.g., HTTPS, VPN, SSH).
+- Threat mitigation (e.g., DDoS, malware).
+Methods: Interactive labs, simulations, and hands-on exercises.
+Outcome: Enhanced ability to protect and monitor network environments.</t>
+  </si>
+  <si>
+    <t>Objectif : Enseigner les meilleures pratiques pour sécuriser les infrastructures réseau et prévenir les cybermenaces.
+Public : Administrateurs IT, ingénieurs réseau, professionnels de la sécurité.
+Sujets :
+Principes de cloisonnement réseau.
+Configuration et surveillance des pare-feu.
+Systèmes de détection/prévention d'intrusion (IDS/IPS/NDR).
+Segmentation réseau et contrôle des accès.
+Protocoles sécurisés (ex. : HTTPS, VPN, SSH).
+Atténuation des menaces (ex. : DDoS, malwares).
+Méthodes : Laboratoires interactifs, simulations et exercices pratiques.
+Résultat : Capacités renforcées pour protéger et surveiller les environnements réseau.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Objective: Teach effective logging practices and monitoring techniques to enhance security and incident response.  
+2. Audience: IT administrators, security teams, and SOC analysts.  
+3. Topics:  
+   - Importance of logging and compliance requirements.  
+   - Configuring and managing log sources (e.g., servers, firewalls, applications).  
+   - Centralized logging systems (e.g., SIEM, ELK stack).  
+   - Detecting anomalies and analyzing logs.  
+   - Incident response based on log insights.  
+4. Methods: Hands-on labs, real-world scenarios, and log analysis exercises.  
+5. Outcome: Improved ability to collect, analyze, and act on log data to prevent and respond to incidents.  </t>
+  </si>
+  <si>
+    <t>Logging and Monitoring Training</t>
+  </si>
+  <si>
+    <t>TRAIN.LOGGING</t>
+  </si>
+  <si>
+    <t>Objectif : Enseigner les pratiques efficaces de journalisation et les techniques de surveillance pour renforcer la sécurité et la réponse aux incidents.
+Public : Administrateurs IT, équipes de sécurité, analystes SOC.
+Sujets :
+Importance de la journalisation et exigences de conformité.
+Configuration et gestion des sources de journaux (ex. : serveurs, pare-feu, applications).
+Systèmes de journalisation centralisée (ex. : SIEM, ELK stack).
+Détection d'anomalies et analyse des journaux.
+Réponse aux incidents basée sur les informations des journaux.
+Méthodes : Ateliers pratiques, scénarios réels et exercices d'analyse des journaux.
+Résultat : Capacité renforcée à collecter, analyser et exploiter les données de journaux pour prévenir et gérer les incidents.</t>
+  </si>
+  <si>
+    <t>Formation sur la Journalisation et la Surveillance</t>
+  </si>
+  <si>
+    <t>Hardening and Secure Configuration Training</t>
+  </si>
+  <si>
+    <t>TRAIN.HARDENING</t>
+  </si>
+  <si>
+    <t>Objective: Equip participants with the knowledge to implement secure configurations and harden systems to reduce vulnerabilities.
+Audience: IT administrators, system engineers, security professionals.
+Topics:
+- Principles of system hardening.
+- Hardening operating systems (Windows, Linux).
+- Securing databases (e.g., MySQL, PostgreSQL).
+- Network device hardening (firewalls, routers, switches).
+- Applying CIS Benchmarks and ANSSI guidelines.
+- Tools for automation (e.g., Ansible, Puppet, Chef).
+Methods:
+- Hands-on labs for OS and application hardening.
+- Case studies on hardening failures and solutions.
+Outcome: Participants will gain the ability to implement secure configurations and improve overall system resilience.</t>
+  </si>
+  <si>
+    <t>7.2
+7.12
+7.13
+7.14
+A.5.12
+A.5.13
+A.5.14
+A.5.15</t>
+  </si>
+  <si>
+    <t>7.2
+A.5.23
+A.5.12
+A.5.16
+A.5.35</t>
+  </si>
+  <si>
+    <t>Formation sur le Durcissement des Systèmes</t>
+  </si>
+  <si>
+    <t>Objectif : Former les participants à appliquer des configurations sécurisées et à durcir les systèmes pour réduire les vulnérabilités.
+Public : Administrateurs IT, ingénieurs systèmes, professionnels de la sécurité.
+Sujets :
+- Principes fondamentaux du durcissement des systèmes.
+- Durcissement des systèmes d’exploitation (Windows, Linux).
+- Sécurisation des bases de données (ex. : MySQL, PostgreSQL).
+- Durcissement des équipements réseau (pare-feu, routeurs, switchs).
+- Application des benchmarks CIS et recommandations ANSSI.
+- Automatisation des configurations (ex. : Ansible, Puppet, Chef).
+Méthodes :
+- Ateliers pratiques pour le durcissement des systèmes et applications.
+- Études de cas sur les échecs de durcissement et leurs solutions.
+Résultat : Les participants maîtriseront la mise en œuvre de configurations sécurisées et l'amélioration de la résilience des systèmes.</t>
+  </si>
+  <si>
+    <t>DOC.SAP</t>
+  </si>
+  <si>
+    <t>Security Assurance Plan</t>
+  </si>
+  <si>
+    <t>Objectif : Sensibiliser l’ensemble des employés à la sécurité de l’information et former spécifiquement les personnes concernées pour promouvoir des comportements sécurisés, assurer la conformité et réduire les risques.
+Portée : Sensibilisation pour tous les employés et prestataires, formation ciblée pour les équipes concernées (ex. : IT, sécurité, responsables d'accès).
+Rôles et Responsabilités : Attribution des responsabilités aux équipes IT, RH et sécurité.
+Exigences de Formation : Définir les sujets obligatoires (ex. : gestion des accès, configuration sécurisée) et la fréquence (ex. : annuelle, à l’intégration).
+Méthodes de Diffusion : Sensibilisation via e-learning et campagnes, formation via ateliers pratiques et simulations.
+Évaluation : Suivre les taux de participation, les résultats des quiz et les tests de phishing.
+Conformité : S’aligner sur les réglementations (ex. : RGPD, ISO 27001) et conserver des dossiers pour audits.
+Amélioration Continue : Mettre à jour en fonction des retours et des menaces émergentes.</t>
+  </si>
+  <si>
+    <t>Objective: Raise awareness for all employees and provide targeted training for relevant staff to promote secure behaviors, ensure compliance, and reduce risks.
+Scope: Awareness for all employees and contractors; targeted training for specific teams (e.g., IT, security, access managers).
+Roles and Responsibilities: Assign responsibilities to IT, HR, and security teams.
+Training Requirements: Define mandatory topics (e.g., access management, secure configurations) and frequency (e.g., annual, onboarding).
+Delivery Methods: Awareness through e-learning and campaigns; training through hands-on workshops and simulations.
+Evaluation: Track participation rates, quiz scores, and phishing test results.
+Compliance: Align with regulations (e.g., GDPR, ISO 27001) and maintain audit-ready records.
+Continuous Improvement: Update based on feedback and emerging threats.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A document provided by suppliers outlining security measures, compliance with standards (e.g., ISO 27001), and testing procedures to ensure the security of their products, services, or systems. It demonstrates their commitment to maintaining a secure environment and provides evidence of compliance and security practices.
+</t>
+  </si>
+  <si>
+    <t>Document fourni par les fournisseurs décrivant les mesures de sécurité, la conformité aux normes (ex. : ISO 27001) et les procédures de test mises en œuvre pour garantir la sécurité de leurs produits, services ou systèmes. Il démontre leur engagement à maintenir un environnement sécurisé et fournit des preuves de conformité et de bonnes pratiques de sécurité.</t>
+  </si>
+  <si>
+    <t>Plan d'Assurance Sécurité (PAS)</t>
+  </si>
+  <si>
+    <t>A.5.19</t>
+  </si>
+  <si>
+    <t>DOC.IS_MAP</t>
+  </si>
+  <si>
+    <t>Information System Mapping</t>
+  </si>
+  <si>
+    <t>A visual representation of an organization's information system components and their interactions to enhance management and security.</t>
+  </si>
+  <si>
+    <t>Cartographie du SI</t>
+  </si>
+  <si>
+    <t>Représentation visuelle des composants d’un système d’information et de leurs interactions pour améliorer la gestion et la sécurité.</t>
+  </si>
+  <si>
+    <t>Privileged Access Management Procedure</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>A document outlining the processes and controls for managing and securing privileged accounts, ensuring only authorized users have access to critical systems and data, with measures like monitoring, auditing, and time-limited access to minimize risks.</t>
+  </si>
+  <si>
+    <t>Document décrivant les processus et contrôles pour gérer et sécuriser les comptes à privilèges, en s'assurant que seuls les utilisateurs autorisés ont accès aux systèmes et données critiques. Elle inclut des mesures telles que la surveillance, l'audit, et l'accès limité dans le temps pour réduire les risques.</t>
+  </si>
+  <si>
+    <t>A.5.18</t>
+  </si>
+  <si>
+    <t>Procédure de gestion des accès à privilèges</t>
+  </si>
+  <si>
+    <t>DOC.PAM_REGISTER</t>
+  </si>
+  <si>
+    <t>Register of privileged access accounts</t>
+  </si>
+  <si>
+    <t>Registre des accès à privilèges</t>
+  </si>
+  <si>
+    <t>Account recertification procedure</t>
+  </si>
+  <si>
+    <t>A document that defines the process for regularly reviewing and validating user access rights, system certifications, or compliance with standards. It ensures that only authorized users and systems retain access or certification, and it helps identify and revoke outdated or unnecessary permissions.</t>
+  </si>
+  <si>
+    <t>A.5.22</t>
+  </si>
+  <si>
+    <t>Procédure de recertification des accès</t>
+  </si>
+  <si>
+    <t>A document that outlines processes and controls related to managing human resources within an organization, ensuring compliance with legal, regulatory, and security standards. It includes recruitment, onboarding, role changes, training, and termination procedures to safeguard the organization’s information and assets.</t>
+  </si>
+  <si>
+    <t>HR Security Procedure</t>
+  </si>
+  <si>
+    <t>A.5.7
+A.5.8
+A.5.30
+A.5.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Document décrivant le processus de révision et de validation régulières des droits d'accès des utilisateurs, des certifications des systèmes ou de la conformité aux normes. Il garantit que seuls les utilisateurs et systèmes autorisés conservent leurs accès ou certifications, et aide à identifier et révoquer les autorisations obsolètes ou inutiles.</t>
+  </si>
+  <si>
+    <t>Document décrivant les processus et contrôles liés à la gestion des ressources humaines au sein d'une organisation, en garantissant la conformité aux normes légales, réglementaires et de sécurité. Il inclut les procédures de recrutement, d'intégration, de changement de rôle, de formation et de départ afin de protéger les informations et les actifs de l'organisation.</t>
+  </si>
+  <si>
+    <t>PROC.HR_SECURITY</t>
+  </si>
+  <si>
+    <t>Procédure de sécurité RH</t>
+  </si>
+  <si>
+    <t>PROC.RECERTIFICATION</t>
+  </si>
+  <si>
+    <t>PROC.PAM</t>
+  </si>
+  <si>
+    <t>PROC.PHYSICAL_SECURITY</t>
+  </si>
+  <si>
+    <t>Physical Security Procedure</t>
+  </si>
+  <si>
+    <t>Access Control: Procedures for granting, revoking, and monitoring physical access to secure areas.
+Asset Protection: Guidelines for safeguarding critical assets (e.g., servers, storage devices).
+Surveillance: Use of cameras, alarms, and monitoring systems to detect and prevent breaches.
+Visitor Management: Policies for registering and escorting visitors in secure areas.
+Incident Response: Steps to address physical security breaches or emergencies.</t>
+  </si>
+  <si>
+    <t>A.5.14
+A.5.20
+A.5.21</t>
+  </si>
+  <si>
+    <t>Procédure de sécurité physique</t>
+  </si>
+  <si>
+    <t>Contrôle des accès : Procédures pour accorder, révoquer et surveiller l'accès physique aux zones sécurisées.
+Protection des actifs : Lignes directrices pour protéger les actifs critiques (ex. : serveurs, dispositifs de stockage).
+Surveillance : Utilisation de caméras, d'alarmes et de systèmes de monitoring pour détecter et prévenir les violations.
+Gestion des visiteurs : Politiques pour l'enregistrement et l'accompagnement des visiteurs dans les zones sécurisées.
+Réponse aux incidents : Étapes pour traiter les violations de sécurité physique ou les situations d'urgence.</t>
+  </si>
+  <si>
+    <t>TECH.NAC</t>
+  </si>
+  <si>
+    <t>Network Access Control (802.1X)</t>
+  </si>
+  <si>
+    <t>technical</t>
+  </si>
+  <si>
+    <t>Une capacité permettant d'assurer l'authentification et l'autorisation des appareils ou des utilisateurs avant de leur accorder l'accès au réseau. Elle garantit un accès sécurisé aux réseaux filaires et sans fil en utilisant des protocoles comme 802.1X et RADIUS pour valider les identifiants et appliquer les politiques d'accès.</t>
+  </si>
+  <si>
+    <t>Contrôle d'Accès Réseau (802.1X)</t>
+  </si>
+  <si>
+    <t>A.5.20</t>
+  </si>
+  <si>
+    <t>TECH.ACCESS_LOG</t>
+  </si>
+  <si>
+    <t>detect</t>
+  </si>
+  <si>
+    <t>A.5.12
+A.5.15</t>
+  </si>
+  <si>
+    <t>Journalisation des accès</t>
+  </si>
+  <si>
+    <t>Access Logging</t>
+  </si>
+  <si>
+    <t>TECH.EDR</t>
+  </si>
+  <si>
+    <t>Event Detection and Response (EDR) Capacity</t>
+  </si>
+  <si>
+    <t>Capacité de détection et de traitement des événements (EDR)</t>
+  </si>
+  <si>
+    <t>TECH.PASSWORD_MANAGER</t>
+  </si>
+  <si>
+    <t>Password Management Capacity</t>
+  </si>
+  <si>
+    <t>A capacity that enforces authentication and authorization of devices or users before granting network access. It ensures secure access to wired and wireless networks by leveraging protocols like 82.1X and RADIUS to validate credentials and apply access policies.</t>
+  </si>
+  <si>
+    <t>A capacity that enables secure creation, storage, management, and usage of passwords for systems, applications, and accounts. It reduces the risk of unauthorized access by enforcing strong password policies and ensuring secure handling of credentials.</t>
+  </si>
+  <si>
+    <t>TECH.UEM</t>
+  </si>
+  <si>
+    <t>Unified Endpoint Management Capacity</t>
+  </si>
+  <si>
+    <t>Système de gestion des mots de passe</t>
+  </si>
+  <si>
+    <t>Capacité permettant la création, le stockage, la gestion et l'utilisation sécurisés des mots de passe pour les systèmes, les applications et les comptes. Elle réduit le risque d'accès non autorisé en appliquant des politiques de mots de passe robustes et en garantissant une gestion sécurisée des identifiants.</t>
+  </si>
+  <si>
+    <t>A capacity that provides centralized control and management of all endpoints, including desktops, laptops, mobile devices, and IoT devices, through a single platform. It ensures secure configuration, policy enforcement, application management, and monitoring across an organization's endpoint ecosystem.</t>
+  </si>
+  <si>
+    <t>A.5.23</t>
+  </si>
+  <si>
+    <t>Système unifié de gestion des terminaux</t>
+  </si>
+  <si>
+    <t>Capacité permettant le contrôle et la gestion centralisés de tous les terminaux, y compris les ordinateurs de bureau, les ordinateurs portables, les appareils mobiles et les dispositifs IoT, via une plateforme unique. Elle garantit une configuration sécurisée, l'application des politiques, la gestion des applications et la surveillance de l'écosystème des terminaux de l'organisation.</t>
+  </si>
+  <si>
+    <t>Antivirus et pare-feu pour poste de travail</t>
+  </si>
+  <si>
+    <t>A.8.7</t>
+  </si>
+  <si>
+    <t>TECH.DISK_ENCRYPTION</t>
+  </si>
+  <si>
+    <t>Disk Encryption Capacity</t>
+  </si>
+  <si>
+    <t>PROC.GPO</t>
+  </si>
+  <si>
+    <t>Group Policy Objects Procedure</t>
+  </si>
+  <si>
+    <t>defines how to create, configure, and manage GPOs to enforce security settings, system configurations, and user policies across a Windows environment. It ensures consistent implementation of organizational policies for secure and compliant IT operations.</t>
+  </si>
+  <si>
+    <t>Procédure GPO</t>
+  </si>
+  <si>
+    <t>Définit comment créer, configurer et gérer les GPO pour appliquer les paramètres de sécurité, les configurations système et les politiques utilisateur dans un environnement Windows. Cela garantit une mise en œuvre cohérente des politiques organisationnelles pour des opérations informatiques sécurisées et conformes.</t>
+  </si>
+  <si>
+    <t>TECH.IMMUTABLE_BACKUP</t>
+  </si>
+  <si>
+    <t>Immutable backup capacity</t>
+  </si>
+  <si>
+    <t>recover</t>
+  </si>
+  <si>
+    <t>A capability that ensures backups cannot be altered, deleted, or overwritten, protecting data integrity against ransomware and unauthorized access.</t>
+  </si>
+  <si>
+    <t>Capacité de sauvegarde immuable</t>
+  </si>
+  <si>
+    <t>Capacité qui garantit que les sauvegardes ne peuvent pas être modifiées, supprimées ou écrasées, assurant l’intégrité des données contre les ransomwares et les accès non autorisés.</t>
+  </si>
+  <si>
+    <t>A.5.30</t>
+  </si>
+  <si>
+    <t>PROC.UPDATE</t>
+  </si>
+  <si>
+    <t>PROC.INCIDENT</t>
+  </si>
+  <si>
+    <t>Incident Management Procedure</t>
+  </si>
+  <si>
+    <t>DOC.INCIDENT_REGiSTER</t>
+  </si>
+  <si>
+    <t>respond</t>
+  </si>
+  <si>
+    <t>PROC.DISPOSAL</t>
+  </si>
+  <si>
+    <t>Secure Disposal Procedure</t>
+  </si>
+  <si>
+    <t>DOC.FLOW_MATRIX</t>
+  </si>
+  <si>
+    <t>Flow Matrix</t>
+  </si>
+  <si>
+    <t>TECH.FILE_ENCRYPTION</t>
+  </si>
+  <si>
+    <t>File encryption capacity</t>
+  </si>
+  <si>
+    <t>TECH.CMDB</t>
+  </si>
+  <si>
+    <t>Configuration Management DataBase (CMDB)</t>
+  </si>
+  <si>
+    <t>PROC.NTP</t>
+  </si>
+  <si>
+    <t>Time Synchronization Procedure</t>
+  </si>
+  <si>
+    <t>TECH.SIEM</t>
+  </si>
+  <si>
+    <t>TECH.SCREEN_FILTER</t>
+  </si>
+  <si>
+    <t>Screen Filter</t>
+  </si>
+  <si>
+    <t>TECH.ENDPOINT_PROTECTION</t>
+  </si>
+  <si>
+    <t>Host antivirus, firewall and USB control</t>
+  </si>
+  <si>
+    <t>Security Architecture Principles</t>
+  </si>
+  <si>
+    <t>Principes d'architecture sécurité</t>
+  </si>
+  <si>
+    <t>DOC.ARC_PRINCIPLES</t>
+  </si>
+  <si>
+    <t>TECH.VLAN</t>
+  </si>
+  <si>
+    <t>TECH.MICROSEGMENTATION</t>
+  </si>
+  <si>
+    <t>TECH.WIFI_SEC</t>
+  </si>
+  <si>
+    <t>TECH.REVERSE_PROXY</t>
+  </si>
+  <si>
+    <t>TECH.WAF</t>
+  </si>
+  <si>
+    <t>TECH.IDS</t>
+  </si>
+  <si>
+    <t>procedure</t>
+  </si>
+  <si>
+    <t>Procedures</t>
+  </si>
+  <si>
+    <t>Mesures de référence courantes</t>
+  </si>
+  <si>
+    <t>Usual reference controls</t>
+  </si>
+  <si>
+    <t>Usual documents, policies, procedures, training and technical controls recommended by intuitem</t>
+  </si>
+  <si>
+    <t>Documents, politiques, procédures, formations et mesures techniques recommandés par intuitem</t>
+  </si>
+  <si>
+    <t>usual-controls</t>
+  </si>
+  <si>
+    <t>Matrice de flux</t>
+  </si>
+  <si>
+    <t>Security Incident Register</t>
+  </si>
+  <si>
+    <t>Registre des incidents de sécurité</t>
+  </si>
+  <si>
+    <t>A.5.34</t>
+  </si>
+  <si>
+    <t>Procédure de gestion des mises à jour</t>
+  </si>
+  <si>
+    <t>Update management procedure</t>
+  </si>
+  <si>
+    <t>Procédure de gestion des incidents</t>
+  </si>
+  <si>
+    <t>A.8.8</t>
+  </si>
+  <si>
+    <t>POL.VULNERABILITY</t>
+  </si>
+  <si>
+    <t>Vulnerability management policy</t>
+  </si>
+  <si>
+    <t>Politique de gestion des vulnérabilités</t>
+  </si>
+  <si>
+    <t>Vulnerability detection and management
+Patch management</t>
+  </si>
+  <si>
+    <t>Détection et gestion des vulnérabilités
+Gestion des mises à jour</t>
+  </si>
+  <si>
+    <t>Objectif : Définir les usages autorisés et interdits des ressources.
+Portée : Tous les utilisateurs du SI.
+Règles : Activités permises et proscrites, obligations de sécurité.
+Confidentialité : Protection des données sensibles.
+Conformité : Surveillance, sanctions en cas de non-respect.</t>
+  </si>
+  <si>
+    <t>Objective: To define the permitted and prohibited uses of resources.
+Scope: All IS users.
+Rules: Permitted and prohibited activities, safety obligations.
+Confidentiality: Protection of sensitive data.
+Compliance: Monitoring, penalties for non-compliance.</t>
+  </si>
+  <si>
+    <t>Règles d'intégration de la sécurité dans les projets SI</t>
+  </si>
+  <si>
+    <t>Rules for the integration of security in IS projects</t>
+  </si>
+  <si>
+    <t>A.8.8
+A.5.35</t>
+  </si>
+  <si>
+    <t>A.8.27</t>
+  </si>
+  <si>
+    <t>A.5.8</t>
+  </si>
+  <si>
+    <t>A.5.3</t>
+  </si>
+  <si>
+    <t>A.5.37</t>
+  </si>
+  <si>
+    <t>7.2
+A.6.3</t>
+  </si>
+  <si>
+    <t>7.3.c
+A.6.3</t>
+  </si>
+  <si>
+    <t>A document mapping authorized data flows between systems, applications, or network zones to ensure secure and compliant communication.</t>
+  </si>
+  <si>
+    <t>Document cartographiant les flux de données autorisés entre systèmes, applications ou zones réseau pour garantir des communications sécurisées et conformes.</t>
+  </si>
+  <si>
+    <t>A.5.24
+A.5.25
+A.5.26
+A.5.27
+A.5.28</t>
+  </si>
+  <si>
+    <t>A.7.14</t>
+  </si>
+  <si>
+    <t>A.8.17</t>
+  </si>
+  <si>
+    <t>Procédure de gestion de la mise au rebut</t>
+  </si>
+  <si>
+    <t>Procédure de synchronisation des horloges</t>
+  </si>
+  <si>
+    <t>A.5.18
+A.8.2</t>
+  </si>
+  <si>
+    <t>Incident Classification
+Incident Reporting
+Incident Response Process
+Root Cause Analysis and Lessons Learned
+Documentation and Communication
+Roles and Responsibilities
+Review and Updates</t>
+  </si>
+  <si>
+    <t>Classification des incidents
+Signalement des incidents
+Processus de réponse aux incidents
+Analyse des causes et retours d'expérience
+Documentation et communication
+Rôles et responsabilités
+Revue et mises à jour</t>
+  </si>
+  <si>
+    <t>Practical implementation of the incident management policy</t>
+  </si>
+  <si>
+    <t>Implémentation pratique de la politique de gestion des incidents</t>
+  </si>
+  <si>
+    <t>Rôles et responsabilités
+Identification des actifs à mettre au rebut
+Méthodes de mise au rebut sécurisée
+Effacement des données
+Conformité aux exigences légales et réglementaires
+Documentation et tenue des registres
+Vérification et audit</t>
+  </si>
+  <si>
+    <t>Roles and Responsibilities
+Asset Identification for Disposal
+Secure Disposal Methods
+Data Sanitization
+Compliance with Legal and Regulatory Requirements
+Documentation and Record Keeping
+Verification and Audit</t>
+  </si>
+  <si>
+    <t>Roles and Responsibilities
+Update Classification
+Update Planning
+Testing and Validation
+Deployment Process
+Monitoring and Verification
+Documentation and Reporting</t>
+  </si>
+  <si>
+    <t>Rôles et responsabilités
+Classification des mises à jour
+Planification des mises à jour
+Tests et validation
+Processus de déploiement
+Suivi et vérification
+Documentation et rapports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Time Source: Use reliable external sources (e.g., NTP servers).
+Configuration: Define synchronization intervals and fallback mechanisms.
+Monitoring: Regularly verify time synchronization status.</t>
+  </si>
+  <si>
+    <t>Source temporelle : Utiliser des sources fiables (ex. : serveurs NTP).
+Configuration : Définir les intervalles de synchronisation et les mécanismes de secours.
+Surveillance : Vérifier régulièrement l’état de la synchronisation temporelle.</t>
+  </si>
+  <si>
+    <t>A physical or digital filter that limits screen visibility to authorized users, reducing the risk of visual data breaches.</t>
+  </si>
+  <si>
+    <t>A.7.9</t>
+  </si>
+  <si>
+    <t>Filtre d'écran</t>
+  </si>
+  <si>
+    <t>Filtre physique ou numérique qui limite la visibilité de l'écran aux utilisateurs autorisés, réduisant le risque de divulgation visuelle de données.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A system that collects, analyzes, and correlates security data from multiple sources to detect and respond to threats.
+</t>
+  </si>
+  <si>
+    <t>Security Information and Event Management (SIEM)</t>
+  </si>
+  <si>
+    <t>Système qui collecte, analyse et corrèle les données de sécurité provenant de multiples sources pour détecter et répondre aux menaces.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestion des informations et des événements de sécurité (SIEM) </t>
+  </si>
+  <si>
+    <t>A.7.13
+A.8.32</t>
+  </si>
+  <si>
+    <t>A.5.12</t>
+  </si>
+  <si>
+    <t>A centralized repository that stores and manages information about IT assets, their configurations, and relationships to support effective IT management.</t>
+  </si>
+  <si>
+    <t>Référentiel centralisé qui stocke et gère les informations sur les actifs IT, leurs configurations et leurs relations pour une gestion IT efficace.</t>
+  </si>
+  <si>
+    <t>Base de données de gestion des configurations (CMDB)</t>
+  </si>
+  <si>
+    <t>Full-disk encryption for workstations</t>
+  </si>
+  <si>
+    <t>Chiffrement de disque complet pour les postes de travail</t>
+  </si>
+  <si>
+    <t>File encryption utilities like 7zip</t>
+  </si>
+  <si>
+    <t>Utilitaire de chiffrement de fichier comme 7zip.</t>
+  </si>
+  <si>
+    <t>Capacité de chiffrement de fichiers</t>
+  </si>
+  <si>
+    <t>Capacité de chiffrement de disque</t>
+  </si>
+  <si>
+    <t>Integrated solutions for securing endpoints, including antivirus, firewall, and USB port control </t>
+  </si>
+  <si>
+    <t>Solutions intégrées pour sécuriser les terminaux, incluant antivirus, pare-feu et gestion des ports USB</t>
+  </si>
+  <si>
+    <t>A.8.24</t>
+  </si>
+  <si>
+    <t>TECH.NETWORK_FIREWALL</t>
+  </si>
+  <si>
+    <t>TECH.MAIL_GATEWAY</t>
+  </si>
+  <si>
+    <t>Pare-feu réseau</t>
+  </si>
+  <si>
+    <t>A.8.22</t>
+  </si>
+  <si>
+    <t>ecurity system that monitors and controls incoming and outgoing network traffic based on predefined rules.</t>
+  </si>
+  <si>
+    <t>system that filters, monitors, and protects email communications against spam, malware, and unauthorized access</t>
+  </si>
+  <si>
+    <t>Passerelle mail sécurisée</t>
+  </si>
+  <si>
+    <t>Protects email and web traffic at the network edge against malware</t>
+  </si>
+  <si>
+    <t>Système qui filtre, surveille et protège les communications par email contre le spam, les logiciels malveillants et les accès non autorisés.</t>
+  </si>
+  <si>
+    <t>Système de sécurité qui surveille et contrôle le trafic réseau entrant et sortant selon des règles prédéfinies</t>
+  </si>
+  <si>
+    <t>Protège les emails et le trafic web à la périphérie du réseau contre les malwares</t>
+  </si>
+  <si>
+    <t>Antivirus réseau</t>
+  </si>
+  <si>
+    <t>VLANs isolate and segment network traffic to enhance security and optimize performance.</t>
+  </si>
+  <si>
+    <t>Les VLAN isolent et segmentent le trafic réseau pour renforcer la sécurité et optimiser les performances.</t>
+  </si>
+  <si>
+    <t>VLAN</t>
+  </si>
+  <si>
+    <t>Microsegmentation</t>
+  </si>
+  <si>
+    <t>Micro-segmentation</t>
+  </si>
+  <si>
+    <t>Microsegmentation is a security strategy that creates fine-grained, context-aware policies to isolate individual workloads or applications within a network, limiting lateral movement and containing breaches.</t>
+  </si>
+  <si>
+    <t>La microsegmentation est une stratégie de sécurité qui crée des politiques granulaires et contextuelles pour isoler des charges de travail ou des applications spécifiques dans un réseau, limitant les mouvements latéraux et contenant les violations</t>
+  </si>
+  <si>
+    <t>Sécurité Wi-Fi</t>
+  </si>
+  <si>
+    <t>Wi-Fi security ensures secure wireless communications through WPA3 Enterprise encryption, robust authentication, and advanced access control mechanisms. While WPA2 Enterprise remains acceptable, transitioning to WPA3 is strongly recommended for enhanced security.</t>
+  </si>
+  <si>
+    <t>La sécurité Wi-Fi garantit des communications sans fil sécurisées grâce au chiffrement WPA3 Enterprise, à une authentification robuste et à des mécanismes de contrôle d'accès avancés. Bien que WPA2 Enterprise soit acceptable, il est fortement recommandé de passer à WPA3 pour une sécurité renforcée.</t>
+  </si>
+  <si>
+    <t>A reverse proxy forwards client requests to backend servers, enhancing security, load balancing, and performance.</t>
+  </si>
+  <si>
+    <t>Reverse Proxy</t>
+  </si>
+  <si>
+    <t>Wi-Fi Security</t>
+  </si>
+  <si>
+    <t>Network Antivirus</t>
+  </si>
+  <si>
+    <t>Secure Mail Gateway</t>
+  </si>
+  <si>
+    <t>Network Firewall</t>
+  </si>
+  <si>
+    <t>A.8.23</t>
+  </si>
+  <si>
+    <t>TECH.WEB_PROXY</t>
+  </si>
+  <si>
+    <t>Un proxy inverse transfère les requêtes des clients vers les serveurs backend, améliorant la sécurité, l'équilibrage de charge et les performances</t>
+  </si>
+  <si>
+    <t>Proxy inverse</t>
+  </si>
+  <si>
+    <t>Web Application Firewall (WAF)</t>
+  </si>
+  <si>
+    <t>A Web Application Firewall (WAF) protects web applications by filtering and monitoring HTTP traffic to block malicious activity.</t>
+  </si>
+  <si>
+    <t>Firewall applicatif web</t>
+  </si>
+  <si>
+    <t>Un pare-feu pour applications web (WAF) protège les applications web en filtrant et surveillant le trafic HTTP pour bloquer les activités malveillantes.</t>
+  </si>
+  <si>
+    <t>An Intrusion Detection System (IDS) monitors network traffic to detect and alert on potential security threats or unauthorized activities</t>
+  </si>
+  <si>
+    <t>Intrusion Detection System (IDS)</t>
+  </si>
+  <si>
+    <t>A.8.20</t>
+  </si>
+  <si>
+    <t>A.8.20
+A.8.24</t>
+  </si>
+  <si>
+    <t>Système de détection d'intrusion (IDS)</t>
+  </si>
+  <si>
+    <t>Un système de détection d'intrusion (IDS) surveille le trafic réseau pour détecter et alerter sur les menaces de sécurité potentielles ou les activités non autorisées.</t>
+  </si>
+  <si>
+    <t>A web proxy filters and monitors web traffic, enforces security policies, and supports user authentication to control and secure internet access</t>
+  </si>
+  <si>
+    <t>Proxy web</t>
+  </si>
+  <si>
+    <t>Web Proxy</t>
+  </si>
+  <si>
+    <t>Un proxy web filtre et surveille le trafic web, applique des politiques de sécurité et prend en charge l'authentification des utilisateurs pour contrôler et sécuriser l'accès à Internet.</t>
+  </si>
+  <si>
+    <t>TRAIN.MCS</t>
+  </si>
+  <si>
+    <t>Formation Maintien en Condition de Sécurité (MCS)</t>
+  </si>
+  <si>
+    <t>Objective: Build expertise in maintaining secure IT systems through monitoring, patching, compliance, and incident response.
+Audience: IT security professionals, system administrators, compliance officers, and incident response teams.
+Topics:
+- Principles of maintaining security and its importance in cybersecurity.
+- Security monitoring tools and techniques (e.g., SIEM, IDS).
+- Patch management and secure system configurations.
+- Incident detection, response planning, and execution.
+- Compliance with security policies and regulatory standards.
+Methods: Practical labs, simulated scenarios, and case studies on maintaining security conditions.
+Outcome: Enhanced capability to continuously secure IT environments, mitigate risks, and ensure compliance.</t>
+  </si>
+  <si>
+    <t>Objectif : Développer une expertise dans le maintien en condition de sécurité (MCS)
+Public : Professionnels de la sécurité IT, administrateurs systèmes, responsables conformité et équipes de réponse aux incidents.
+Sujets :
+- Principes du MCS et son importance en cybersécurité.
+- Outils et techniques de surveillance de la sécurité (ex. : SIEM, IDS).
+- Gestion des correctifs et configurations sécurisées des systèmes.
+- Détection des incidents, planification et exécution des réponses.
+- Conformité aux politiques de sécurité et aux réglementations.
+Méthodes : Exercices pratiques, scénarios simulés et études de cas sur le maintien des conditions de sécurité.
+Résultat attendu : Capacité renforcée à sécuriser en continu les environnements IT, à atténuer les risques et à garantir la conformité.</t>
+  </si>
+  <si>
+    <t>TECH.NETWORK_ANTIVIRUS</t>
+  </si>
+  <si>
+    <t>TECH.VPN</t>
+  </si>
+  <si>
+    <t>VPN</t>
+  </si>
+  <si>
+    <t>A Virtual Private Network (VPN) secures data transmission by encrypting traffic using protocols like IPSec, ensuring privacy and protection against interception."</t>
+  </si>
+  <si>
+    <t>Un réseau privé virtuel (VPN) sécurise la transmission des données en chiffrant le trafic grâce à des protocoles comme IPSec, garantissant la confidentialité et la protection contre les interceptions.</t>
+  </si>
+  <si>
+    <t>PROC.EMAIL_SECURITY</t>
+  </si>
+  <si>
+    <t>Email Security Configuration Procedure</t>
+  </si>
+  <si>
+    <t>Email Server Configuration
+Domain-Based Email Protection
+Anti-Malware and Anti-Spam Controls
+Encryption and Secure Communication
+Access Control and Monitoring
+Backup and Recovery
+User Awareness and Training</t>
+  </si>
+  <si>
+    <t>Configuration du serveur de messagerie
+Protection des emails basée sur le domaine
+Contrôles anti-malware et anti-spam
+Chiffrement et communication sécurisée
+Contrôle d’accès et surveillance
+Sauvegarde et récupération
+Sensibilisation et formation des utilisateurs</t>
+  </si>
+  <si>
+    <t>Procédure de sécurisation des emails</t>
+  </si>
+  <si>
+    <t>A.8.21</t>
+  </si>
+  <si>
+    <t>TECH.MFA</t>
+  </si>
+  <si>
+    <t>Multi-Factor Authentication (MFA)</t>
+  </si>
+  <si>
+    <t>Multi-Factor Authentication (MFA) enhances security by requiring two verification factors from different categories: something you know (e.g., a password), something you have (e.g., a token or smartphone), and something you are (e.g., a fingerprint or facial recognition).</t>
+  </si>
+  <si>
+    <t>L'authentification multifacteur (MFA) améliore la sécurité en exigeant deux facteurs de vérification issus de catégories différentes : ce que vous savez (ex. : un mot de passe), ce que vous possédez (ex. : un jeton ou un smartphone) et ce que vous êtes (ex. : une empreinte digitale ou une reconnaissance faciale)</t>
+  </si>
+  <si>
+    <t>Authentification Multi-Facteur (MFA)</t>
+  </si>
+  <si>
+    <t>A.8.5</t>
+  </si>
+  <si>
+    <t>PROC.LOGGING</t>
+  </si>
+  <si>
+    <t>Logging procedure</t>
+  </si>
+  <si>
+    <t>Log collection and categorization
+Secure storage and retention policies
+Analysis for anomaly detection and incident response</t>
+  </si>
+  <si>
+    <t>Procédure de gestion de la journalisation</t>
+  </si>
+  <si>
+    <t>Collecte et catégorisation des journaux
+Stockage sécurisé et politiques de rétention
+Analyse pour la détection d'anomalies et la réponse aux incidents</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -758,6 +2152,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -785,7 +2191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -809,6 +2215,22 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1149,10 +2571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B26082-4BCE-3241-A6CE-5878E545CE62}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="166" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView zoomScale="166" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1167,7 +2589,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1175,12 +2597,12 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -1188,10 +2610,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1199,7 +2621,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>396</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1207,31 +2629,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>397</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1251,15 +2673,15 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>238</v>
       </c>
       <c r="B13" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -1267,10 +2689,10 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>95</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -1278,10 +2700,48 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>394</v>
+      </c>
+      <c r="C17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>250</v>
+      </c>
+      <c r="C18" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>239</v>
+      </c>
+      <c r="B19" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>240</v>
+      </c>
+      <c r="B20" t="s">
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -1292,342 +2752,672 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1279AC8D-22DB-B048-848F-D6351885BF84}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView zoomScale="135" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="68.1640625" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="68.1640625" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="68.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="G1" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>139</v>
+        <v>109</v>
+      </c>
+      <c r="D2" t="s">
+        <v>244</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="170" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+      <c r="D3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="170" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>144</v>
+        <v>109</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="G6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="F7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="187" x14ac:dyDescent="0.2">
+      <c r="G7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="187" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G8" t="s">
+        <v>175</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="F9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B10" t="s">
         <v>44</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G10" t="s">
+        <v>177</v>
+      </c>
+      <c r="H10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="F11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="153" x14ac:dyDescent="0.2">
+      <c r="G11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="153" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s">
         <v>46</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>147</v>
+        <v>109</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G12" t="s">
+        <v>179</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s">
         <v>47</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E13" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="G13" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B14" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>149</v>
+        <v>109</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G14" t="s">
+        <v>181</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B15" t="s">
         <v>51</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="G15" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="B16" t="s">
         <v>49</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F16" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="153" x14ac:dyDescent="0.2">
+      <c r="G16" t="s">
+        <v>183</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B17" t="s">
         <v>74</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="G17" t="s">
+        <v>184</v>
+      </c>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="B18" t="s">
         <v>78</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F18" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
+        <v>185</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B19" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="F19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="B20" t="s">
         <v>80</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="F20" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="E21" t="s">
         <v>85</v>
+      </c>
+      <c r="G21" t="s">
+        <v>188</v>
+      </c>
+      <c r="H21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="289" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>241</v>
+      </c>
+      <c r="B22" t="s">
+        <v>242</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="G22" t="s">
+        <v>246</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="153" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>281</v>
+      </c>
+      <c r="B23" t="s">
+        <v>282</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F23" t="s">
+        <v>288</v>
+      </c>
+      <c r="G23" t="s">
+        <v>287</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>289</v>
+      </c>
+      <c r="B24" t="s">
+        <v>290</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F24" t="s">
+        <v>82</v>
+      </c>
+      <c r="G24" t="s">
+        <v>292</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>300</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" t="s">
+        <v>298</v>
+      </c>
+      <c r="G25" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>367</v>
+      </c>
+      <c r="B26" t="s">
+        <v>401</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" t="s">
+        <v>403</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>371</v>
+      </c>
+      <c r="B27" t="s">
+        <v>372</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="F27" t="s">
+        <v>327</v>
+      </c>
+      <c r="G27" t="s">
+        <v>400</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>386</v>
+      </c>
+      <c r="B28" t="s">
+        <v>384</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="F28" t="s">
+        <v>418</v>
+      </c>
+      <c r="G28" t="s">
+        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -1636,394 +3426,1823 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F61085DC-8CA6-1C49-92D1-551D13D7963E}">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView zoomScale="142" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="68.1640625" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="68.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="G2" t="s">
+        <v>299</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F3" t="s">
+        <v>305</v>
+      </c>
+      <c r="G3" t="s">
+        <v>306</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="170" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B5" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="G5" t="s">
+        <v>320</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>352</v>
+      </c>
+      <c r="B6" t="s">
+        <v>353</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="F6" t="s">
+        <v>345</v>
+      </c>
+      <c r="G6" t="s">
+        <v>355</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B7" t="s">
+        <v>405</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="F7" t="s">
+        <v>407</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>365</v>
+      </c>
+      <c r="B8" t="s">
+        <v>366</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="G8" t="s">
+        <v>406</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>369</v>
+      </c>
+      <c r="B9" t="s">
+        <v>370</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="G9" t="s">
+        <v>429</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>377</v>
+      </c>
+      <c r="B10" t="s">
+        <v>378</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="G10" t="s">
+        <v>430</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>519</v>
+      </c>
+      <c r="B11" t="s">
+        <v>520</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="G11" t="s">
+        <v>523</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>531</v>
+      </c>
+      <c r="B12" t="s">
+        <v>532</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" t="s">
+        <v>534</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6B6ED43-23D8-E048-80C8-6CB4032E903A}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView zoomScale="161" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView topLeftCell="A3" zoomScale="161" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.83203125" customWidth="1"/>
     <col min="2" max="2" width="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="G1" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="G3" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="102" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="F4" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="153" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="G6" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="204" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="102" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="G10" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="255" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G12" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="H16" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="153" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="G19" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="153" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E22" t="s">
+        <v>416</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="H22" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D8" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="204" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="F23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="238" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="119" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>71</v>
-      </c>
-      <c r="B22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E22" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>79</v>
-      </c>
-      <c r="B24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>73</v>
-      </c>
-      <c r="B25" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E25" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="F25" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>90</v>
+        <v>408</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>409</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E26" t="s">
-        <v>91</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CB94720-40C1-4549-9BE9-365B5E7C50B2}">
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="200" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13" style="12"/>
+    <col min="5" max="5" width="50.83203125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="56.6640625" style="12" customWidth="1"/>
+    <col min="9" max="16384" width="13" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="136" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="153" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="221" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="272" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="306" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>512</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="272" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="323" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>328</v>
+      </c>
+      <c r="B10" t="s">
+        <v>332</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>463</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>442</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A22" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>469</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A23" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A24" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A25" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A26" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A27" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>486</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A28" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A29" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>501</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>500</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A30" s="13" t="s">
+        <v>493</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A31" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A32" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>527</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>529</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>528</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>